--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\TouHou.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9536772-C3D0-4949-B41A-E77C9FC401F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB4E7C-E428-4CEC-AAED-FB7B26528A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="709">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2321,6 +2321,10 @@
   </si>
   <si>
     <t>幻想地下大轨道网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博丽灵梦A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2372,9 +2376,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2657,20 +2660,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -2704,13 +2707,13 @@
         <v>391</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>708</v>
       </c>
       <c r="F2">
         <v>22636836</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>388</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>22636829</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>388</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>22636835</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>388</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>22636837</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>388</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>500684336</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>34999157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>378</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>34999158</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>378</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>34999160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>378</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>34999161</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>378</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>34999163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>364</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>22636805</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>364</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>22636807</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>364</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>22636804</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>364</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>22636816</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>22636808</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>364</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>22636810</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>364</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>22636806</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>364</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>22636820</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>364</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>22636811</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>22636814</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>356</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>22636738</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>356</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>22636747</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>356</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>22636741</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>356</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>22636751</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>22636742</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>356</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>22636740</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>356</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>22636746</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>356</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>22636744</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>356</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>22636758</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>343</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>22636764</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>343</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>22636763</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>343</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>22636767</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>343</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>22636765</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>343</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>22636779</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>343</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>22636770</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>343</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>22636768</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>343</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>22636774</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>343</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>22636777</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>343</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>22636772</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>329</v>
       </c>
@@ -3490,7 +3493,7 @@
         <v>22636719</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>22636721</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>22636718</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>22636730</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>22636722</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -3590,7 +3593,7 @@
         <v>22636724</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -3610,7 +3613,7 @@
         <v>22636720</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>22636732</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>22636725</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>329</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>22636723</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>329</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>22636729</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>313</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>22636707</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>313</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>22636702</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>313</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>22636698</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>313</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>22636711</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>313</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>22636703</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>22636705</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>313</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>22636701</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>313</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>22636714</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>313</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>22636709</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>313</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>22636704</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>22636710</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>313</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>22636708</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>303</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>22765972</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>303</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>22765996</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>303</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>22765964</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>303</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>22765986</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>22765976</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>22766000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>22765967</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>303</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>22765990</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>303</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>22765980</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>303</v>
       </c>
@@ -4130,7 +4133,7 @@
         <v>22766003</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>303</v>
       </c>
@@ -4150,7 +4153,7 @@
         <v>22765970</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>303</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>22765994</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>303</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>22765966</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>303</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>22765984</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>303</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>22765997</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>303</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>22766006</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>288</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>22636686</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>22636681</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>288</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>22636690</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>288</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>22636684</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>288</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>22636680</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>288</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>22636693</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>288</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>22636685</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>288</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>22636683</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>288</v>
       </c>
@@ -4430,7 +4433,7 @@
         <v>22636695</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>288</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>22636689</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>288</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>22636687</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>273</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>510172</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>273</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>510174</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>510177</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>273</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>510179</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>273</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>510182</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>273</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>510185</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>273</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>510188</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>273</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>510192</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>273</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>510196</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>273</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>510200</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>273</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>510204</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>273</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>510208</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>273</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>510216</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>273</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>510212</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>267</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>29710947</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>267</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>29710948</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>267</v>
       </c>
@@ -4810,7 +4813,7 @@
         <v>29710949</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>267</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>29710950</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>267</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>29710952</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>22636639</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>22636649</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>251</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>22636644</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>251</v>
       </c>
@@ -4930,7 +4933,7 @@
         <v>22636653</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>251</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>22636645</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>251</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>22636647</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>251</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>22636655</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>251</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>22636651</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>251</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>22636646</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>251</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>22636656</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>232</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>22765926</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>232</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>22765920</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>232</v>
       </c>
@@ -5110,7 +5113,7 @@
         <v>22765905</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>232</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>22765917</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>232</v>
       </c>
@@ -5150,7 +5153,7 @@
         <v>22765910</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>232</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>22765909</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>232</v>
       </c>
@@ -5190,7 +5193,7 @@
         <v>22765906</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>232</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>22765921</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>232</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>22765913</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>22765912</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>232</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>22765908</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>232</v>
       </c>
@@ -5290,7 +5293,7 @@
         <v>22765916</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>232</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>22765915</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>232</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>22765911</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>213</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>22636622</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>213</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>22636624</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>213</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>22636633</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>213</v>
       </c>
@@ -5410,7 +5413,7 @@
         <v>22636627</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>213</v>
       </c>
@@ -5430,7 +5433,7 @@
         <v>22636636</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>213</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>22636631</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>213</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>22636637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>213</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>22636634</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>195</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>22636613</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>195</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>22636608</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>195</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>22636617</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>195</v>
       </c>
@@ -5570,7 +5573,7 @@
         <v>22636611</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>195</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>22636619</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>195</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>22636615</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>195</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>22636620</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>177</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>851008</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>177</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>851012</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>851016</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>177</v>
       </c>
@@ -5710,7 +5713,7 @@
         <v>851019</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>851022</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>177</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>851034</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>177</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>851037</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>177</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v>851041</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -5810,7 +5813,7 @@
         <v>851044</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>29715513</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>174</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>29715515</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>152</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>509005</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>509011</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>152</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>509019</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>509030</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>152</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>509034</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>152</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>509040</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>152</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>509047</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>152</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>509053</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>27582770</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>146</v>
       </c>
@@ -6050,7 +6053,7 @@
         <v>27582772</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>146</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>27582774</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>146</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>27582776</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>146</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>27582778</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>146</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>27582780</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>146</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>27582782</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>146</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>27582784</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>146</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>27582788</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>146</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>27582792</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>146</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>27582796</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>128</v>
       </c>
@@ -6250,7 +6253,7 @@
         <v>28219110</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>128</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>28219112</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>128</v>
       </c>
@@ -6290,7 +6293,7 @@
         <v>28219114</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>128</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>28219116</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>28219118</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>28219120</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>128</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>28219122</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>34002877</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>34002880</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>126</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>34002882</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>126</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>34002885</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>126</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>34002886</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>126</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>34002887</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>126</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>34002871</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>34002873</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>107</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>33991784</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>107</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>33991807</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>107</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>33991810</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>107</v>
       </c>
@@ -6610,7 +6613,7 @@
         <v>33991812</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>107</v>
       </c>
@@ -6630,7 +6633,7 @@
         <v>34003789</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>107</v>
       </c>
@@ -6650,7 +6653,7 @@
         <v>34003791</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>107</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>34003794</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>74</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>561307021</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>74</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>561307037</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>55</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>477215246</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>477215248</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>55</v>
       </c>
@@ -6770,7 +6773,7 @@
         <v>477215250</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>497463990</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>55</v>
       </c>
@@ -6810,7 +6813,7 @@
         <v>497463992</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>55</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>497463994</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>55</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>497463996</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>46</v>
       </c>
@@ -6860,7 +6863,7 @@
       <c r="C210" t="s">
         <v>653</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" t="s">
         <v>654</v>
       </c>
       <c r="E210" t="s">
@@ -6870,7 +6873,7 @@
         <v>1300452648</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>46</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>1300423634</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>46</v>
       </c>
@@ -6910,7 +6913,7 @@
         <v>1300452649</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>46</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>1300595620</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>29</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>1381562764</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>29</v>
       </c>
@@ -6970,7 +6973,7 @@
         <v>1381564337</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>29</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>1381562765</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>29</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>1384324154</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>1384324156</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>29</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>1384318412</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>29</v>
       </c>
@@ -7070,7 +7073,7 @@
         <v>1384324244</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>675</v>
       </c>
@@ -7080,17 +7083,17 @@
       <c r="C221" t="s">
         <v>678</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" t="s">
         <v>677</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E221" t="s">
         <v>679</v>
       </c>
-      <c r="F221" s="1">
+      <c r="F221">
         <v>1834325747</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>675</v>
       </c>
@@ -7100,17 +7103,17 @@
       <c r="C222" t="s">
         <v>681</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" t="s">
         <v>680</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" t="s">
         <v>682</v>
       </c>
-      <c r="F222" s="1">
+      <c r="F222">
         <v>1834325745</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>674</v>
       </c>
@@ -7120,17 +7123,17 @@
       <c r="C223" t="s">
         <v>684</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" t="s">
         <v>683</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" t="s">
         <v>685</v>
       </c>
-      <c r="F223" s="1">
+      <c r="F223">
         <v>1834325746</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>674</v>
       </c>
@@ -7140,17 +7143,17 @@
       <c r="C224" t="s">
         <v>687</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" t="s">
         <v>686</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E224" t="s">
         <v>688</v>
       </c>
-      <c r="F224" s="1">
+      <c r="F224">
         <v>1843965684</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>674</v>
       </c>
@@ -7160,17 +7163,17 @@
       <c r="C225" t="s">
         <v>690</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" t="s">
         <v>689</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" t="s">
         <v>691</v>
       </c>
-      <c r="F225" s="1">
+      <c r="F225">
         <v>1843965686</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>674</v>
       </c>
@@ -7180,17 +7183,17 @@
       <c r="C226" t="s">
         <v>693</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" t="s">
         <v>692</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="E226" t="s">
         <v>694</v>
       </c>
-      <c r="F226" s="1">
+      <c r="F226">
         <v>1843965688</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>674</v>
       </c>
@@ -7200,17 +7203,17 @@
       <c r="C227" t="s">
         <v>696</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" t="s">
         <v>695</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E227" t="s">
         <v>697</v>
       </c>
-      <c r="F227" s="1">
+      <c r="F227">
         <v>1843965690</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>674</v>
       </c>
@@ -7220,17 +7223,17 @@
       <c r="C228" t="s">
         <v>699</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" t="s">
         <v>698</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E228" t="s">
         <v>700</v>
       </c>
-      <c r="F228" s="1">
+      <c r="F228">
         <v>1843961276</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>674</v>
       </c>
@@ -7240,17 +7243,17 @@
       <c r="C229" t="s">
         <v>702</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" t="s">
         <v>701</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E229" t="s">
         <v>703</v>
       </c>
-      <c r="F229" s="1">
+      <c r="F229">
         <v>1843965685</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>674</v>
       </c>
@@ -7260,17 +7263,17 @@
       <c r="C230" t="s">
         <v>705</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" t="s">
         <v>704</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" t="s">
         <v>703</v>
       </c>
       <c r="F230">
         <v>1843965687</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>674</v>
       </c>
@@ -7280,17 +7283,17 @@
       <c r="C231" t="s">
         <v>707</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" t="s">
         <v>706</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" t="s">
         <v>703</v>
       </c>
       <c r="F231">
         <v>1843965689</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>516</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>30854133</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>516</v>
       </c>
@@ -7330,7 +7333,7 @@
         <v>30854134</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>516</v>
       </c>
@@ -7350,7 +7353,7 @@
         <v>30854137</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>516</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>30854138</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>516</v>
       </c>
@@ -7390,7 +7393,7 @@
         <v>30854142</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>516</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>30854146</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>516</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>30854151</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>516</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>30854182</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>516</v>
       </c>
@@ -7470,7 +7473,7 @@
         <v>30854183</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>516</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>30854184</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>516</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>30854185</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>516</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>30854188</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>516</v>
       </c>
@@ -7550,7 +7553,7 @@
         <v>30854186</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>516</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>30854187</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>516</v>
       </c>
@@ -7590,7 +7593,7 @@
         <v>30854189</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>516</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>30854190</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>584</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>29715584</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>584</v>
       </c>
@@ -7646,11 +7649,11 @@
       <c r="E249" t="s">
         <v>591</v>
       </c>
-      <c r="F249" s="1">
+      <c r="F249">
         <v>29715585</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>584</v>
       </c>
@@ -7666,11 +7669,11 @@
       <c r="E250" t="s">
         <v>591</v>
       </c>
-      <c r="F250" s="1">
+      <c r="F250">
         <v>29715586</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>637</v>
       </c>
@@ -7690,7 +7693,7 @@
         <v>29715587</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>637</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>29715588</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -7730,7 +7733,7 @@
         <v>29715589</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>598</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>29710956</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>605</v>
       </c>
@@ -7770,7 +7773,7 @@
         <v>468513480</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>605</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>29710940</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>605</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>29710941</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>605</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>29710942</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>622</v>
       </c>
@@ -7850,7 +7853,7 @@
         <v>29710959</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>628</v>
       </c>
@@ -7870,7 +7873,7 @@
         <v>22765949</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>628</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>22766029</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>628</v>
       </c>
@@ -7910,7 +7913,7 @@
         <v>22766028</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>628</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>22766019</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>640</v>
       </c>
@@ -7946,18 +7949,18 @@
       <c r="E264" t="s">
         <v>652</v>
       </c>
-      <c r="F264" s="1">
+      <c r="F264">
         <v>28941725</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>640</v>
       </c>
       <c r="B265" t="s">
         <v>641</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" t="s">
         <v>645</v>
       </c>
       <c r="D265" t="s">
@@ -7966,18 +7969,18 @@
       <c r="E265" t="s">
         <v>652</v>
       </c>
-      <c r="F265" s="1">
+      <c r="F265">
         <v>28941726</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>640</v>
       </c>
       <c r="B266" t="s">
         <v>641</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" t="s">
         <v>647</v>
       </c>
       <c r="D266" t="s">
@@ -7986,18 +7989,18 @@
       <c r="E266" t="s">
         <v>652</v>
       </c>
-      <c r="F266" s="1">
+      <c r="F266">
         <v>28941727</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>640</v>
       </c>
       <c r="B267" t="s">
         <v>641</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" t="s">
         <v>649</v>
       </c>
       <c r="D267" t="s">
@@ -8006,18 +8009,18 @@
       <c r="E267" t="s">
         <v>652</v>
       </c>
-      <c r="F267" s="1">
+      <c r="F267">
         <v>28941728</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>640</v>
       </c>
       <c r="B268" t="s">
         <v>641</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" t="s">
         <v>651</v>
       </c>
       <c r="D268" t="s">
@@ -8026,11 +8029,11 @@
       <c r="E268" t="s">
         <v>652</v>
       </c>
-      <c r="F268" s="1">
+      <c r="F268">
         <v>28941729</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>669</v>
       </c>
@@ -8040,13 +8043,13 @@
       <c r="C269" t="s">
         <v>673</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D269" t="s">
         <v>671</v>
       </c>
-      <c r="E269" s="1" t="s">
+      <c r="E269" t="s">
         <v>672</v>
       </c>
-      <c r="F269" s="1">
+      <c r="F269">
         <v>29710961</v>
       </c>
     </row>

--- a/角色曲列表.xlsx
+++ b/角色曲列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\TouHou.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB4E7C-E428-4CEC-AAED-FB7B26528A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66788B6F-882B-46CA-A23F-5C0A80933D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="708">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2321,10 +2321,6 @@
   </si>
   <si>
     <t>幻想地下大轨道网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博丽灵梦A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2707,7 +2703,7 @@
         <v>391</v>
       </c>
       <c r="E2" t="s">
-        <v>708</v>
+        <v>395</v>
       </c>
       <c r="F2">
         <v>22636836</v>
